--- a/biology/Botanique/Hamamélis/Hamamélis.xlsx
+++ b/biology/Botanique/Hamamélis/Hamamélis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hamam%C3%A9lis</t>
+          <t>Hamamélis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamamelis
 Les hamamélis (Hamamelis) (du grec hama, ensemble et mêlon, fruit ou pomme) sont des arbustes à feuillage caduc de la famille des Hamamelidaceae qui comprend cinq espèces : trois originaires d'Amérique du Nord (Hamamelis ovalis, Hamamelis virginiana et Hamamelis vernalis), une originaire du Japon (Hamamelis japonica), et une de Chine (Hamamelis mollis).
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hamam%C3%A9lis</t>
+          <t>Hamamélis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hamamelis japonica Siebold &amp; Zucc.
 Hamamelis mollis Oliv.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hamam%C3%A9lis</t>
+          <t>Hamamélis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,9 +566,11 @@
           <t>Phytothérapie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Amérindiens en avaient une utilisation traditionnelle qui a été reprise par les colons occidentaux. La Commission E, l’ESCOP et l’OMS reconnaissent l'usage de l'hamamélis pour soigner les varices et les hémorroïdes ainsi que les contusions, les entorses, les plaies mineures et les inflammations locales de la peau et des muqueuses. L'ESCOP lui reconnaît également des vertus pour le traitement de la sensation de lourdeur dans les jambes (un symptôme généralement attribuable à une insuffisance veineuse). Les feuilles et l’écorce de l’hamamélis renferment de 8 % à 12 % de tanins, auxquels sont attribués les effets astringents, anti-inflammatoires et hémostatiques de la plante[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Amérindiens en avaient une utilisation traditionnelle qui a été reprise par les colons occidentaux. La Commission E, l’ESCOP et l’OMS reconnaissent l'usage de l'hamamélis pour soigner les varices et les hémorroïdes ainsi que les contusions, les entorses, les plaies mineures et les inflammations locales de la peau et des muqueuses. L'ESCOP lui reconnaît également des vertus pour le traitement de la sensation de lourdeur dans les jambes (un symptôme généralement attribuable à une insuffisance veineuse). Les feuilles et l’écorce de l’hamamélis renferment de 8 % à 12 % de tanins, auxquels sont attribués les effets astringents, anti-inflammatoires et hémostatiques de la plante.
 	Hamamelis × intermedia
 			Arbuste hamamélis.
 			Fleurs d'Hamamelis × intermedia 'Jelena'.
